--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2002.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2002.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.008*"exchange" + 0.005*"foreign" + 0.003*"bank" + 0.003*"currency" + 0.003*"nonresident" + 0.003*"import" + 0.003*"resident" + 0.003*"transaction" + 0.003*"yes" + 0.003*"may"</t>
-  </si>
-  <si>
-    <t>0.012*"foreign" + 0.011*"exchange" + 0.008*"currency" + 0.007*"abroad" + 0.007*"may" + 0.006*"bank" + 0.006*"control" + 0.006*"import" + 0.006*"nonresident" + 0.005*"payment"</t>
-  </si>
-  <si>
-    <t>0.007*"foreign" + 0.005*"exchange" + 0.004*"resident" + 0.003*"control" + 0.003*"bank" + 0.003*"currency" + 0.003*"payment" + 0.003*"import" + 0.003*"account" + 0.003*"export"</t>
-  </si>
-  <si>
-    <t>0.007*"import" + 0.007*"foreign" + 0.006*"exchange" + 0.005*"currency" + 0.005*"account" + 0.005*"payment" + 0.004*"bank" + 0.004*"nonresident" + 0.004*"resident" + 0.004*"yes"</t>
-  </si>
-  <si>
-    <t>0.024*"foreign" + 0.022*"exchange" + 0.016*"account" + 0.015*"currency" + 0.015*"import" + 0.015*"yes" + 0.014*"control" + 0.013*"resident" + 0.012*"payment" + 0.012*"may"</t>
+    <t>0.073*"exchange" + 0.043*"rate" + 0.036*"payment" + 0.032*"arrangement" + 0.021*"currency" + 0.017*"approval" + 0.017*"market" + 0.016*"limit" + 0.015*"foreign" + 0.014*"prior"</t>
+  </si>
+  <si>
+    <t>0.012*"company" + 0.011*"may" + 0.011*"product" + 0.010*"subject" + 0.009*"bank" + 0.009*"good" + 0.009*"certain" + 0.008*"year" + 0.008*"import" + 0.008*"amount"</t>
+  </si>
+  <si>
+    <t>0.082*"yes" + 0.061*"import" + 0.056*"export" + 0.033*"license" + 0.021*"gold" + 0.017*"tax" + 0.015*"trade" + 0.014*"require" + 0.014*"andor" + 0.014*"article"</t>
+  </si>
+  <si>
+    <t>0.058*"control" + 0.037*"resident" + 0.037*"investment" + 0.036*"transaction" + 0.034*"nonresident" + 0.031*"security" + 0.029*"capital" + 0.027*"abroad" + 0.026*"purchase" + 0.025*"credit"</t>
+  </si>
+  <si>
+    <t>0.072*"foreign" + 0.058*"account" + 0.045*"currency" + 0.034*"exchange" + 0.031*"requirement" + 0.030*"fund" + 0.030*"may" + 0.023*"international" + 0.021*"domestic" + 0.020*"monetary"</t>
   </si>
 </sst>
 </file>
